--- a/stock.xlsx
+++ b/stock.xlsx
@@ -3946,7 +3946,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="lessThan" rank="0" text="" id="{00D7001B-0041-4949-88E7-003E00880048}">
+          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="lessThan" rank="0" text="" id="{006500DC-0004-4D61-BC0D-004A001700B6}">
             <xm:f>B$16</xm:f>
             <x14:dxf>
               <font>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>x</t>
   </si>
@@ -507,10 +507,16 @@
     <t>objet82</t>
   </si>
   <si>
-    <t xml:space="preserve">Stock actuel</t>
-  </si>
-  <si>
-    <t>21/11/22</t>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>11/01/2022</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Sorties du stock CDS 
@@ -749,10 +755,10 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -761,29 +767,12 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
       <sz val="14.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="10.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="9.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="8.000000"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -791,7 +780,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="11.000000"/>
+      <sz val="8.000000"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -807,12 +796,6 @@
     <font>
       <name val="Arial"/>
       <color indexed="48"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -855,7 +838,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -882,6 +865,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="0" locked="1"/>
@@ -890,16 +877,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
@@ -910,23 +895,27 @@
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -934,20 +923,8 @@
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
@@ -962,11 +939,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -982,7 +959,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1920,7 +1897,7 @@
       <c r="AS2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AT2" s="8" t="s">
         <v>122</v>
       </c>
       <c r="AU2" s="4" t="s">
@@ -2039,7 +2016,7 @@
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>161</v>
       </c>
       <c r="B3" s="11">
@@ -2299,8 +2276,8 @@
       <c r="CL3" s="11"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
+      <c r="A4" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -2551,13 +2528,13 @@
       <c r="CF4" s="11">
         <v>7</v>
       </c>
-      <c r="CG4" s="12"/>
-      <c r="CH4" s="13"/>
-      <c r="CI4" s="12"/>
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="13"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>0</v>
+      <c r="A5" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
@@ -2808,13 +2785,13 @@
       <c r="CF5" s="15">
         <v>7</v>
       </c>
-      <c r="CG5" s="12"/>
-      <c r="CH5" s="13"/>
-      <c r="CI5" s="12"/>
-    </row>
-    <row r="6" s="16" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>162</v>
+      <c r="CG5" s="13"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="13"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -2921,153 +2898,153 @@
       <c r="AJ6" s="2">
         <v>2</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AK6" s="16">
         <v>6</v>
       </c>
-      <c r="AL6" s="18">
+      <c r="AL6" s="17">
         <v>4</v>
       </c>
-      <c r="AM6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="19">
+      <c r="AM6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="18">
         <v>4</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AO6" s="18">
         <v>2</v>
       </c>
-      <c r="AP6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="19">
+      <c r="AP6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="18">
         <v>9</v>
       </c>
-      <c r="AR6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="19">
+      <c r="AR6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="18">
         <v>7</v>
       </c>
-      <c r="AT6" s="19">
+      <c r="AT6" s="18">
         <v>2</v>
       </c>
-      <c r="AU6" s="19">
+      <c r="AU6" s="18">
         <v>2</v>
       </c>
-      <c r="AV6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="19">
+      <c r="AV6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="18">
         <v>8</v>
       </c>
-      <c r="AX6" s="19">
+      <c r="AX6" s="18">
         <v>5</v>
       </c>
-      <c r="AY6" s="19">
+      <c r="AY6" s="18">
         <v>4</v>
       </c>
-      <c r="AZ6" s="19">
+      <c r="AZ6" s="18">
         <v>9</v>
       </c>
-      <c r="BA6" s="19">
+      <c r="BA6" s="18">
         <v>7</v>
       </c>
-      <c r="BB6" s="19">
+      <c r="BB6" s="18">
         <v>3</v>
       </c>
-      <c r="BC6" s="19">
+      <c r="BC6" s="18">
         <v>3</v>
       </c>
-      <c r="BD6" s="19">
+      <c r="BD6" s="18">
         <v>4</v>
       </c>
-      <c r="BE6" s="19">
+      <c r="BE6" s="18">
         <v>4</v>
       </c>
-      <c r="BF6" s="19">
+      <c r="BF6" s="18">
         <v>4</v>
       </c>
-      <c r="BG6" s="19">
+      <c r="BG6" s="18">
         <v>9</v>
       </c>
-      <c r="BH6" s="19">
+      <c r="BH6" s="18">
         <v>7</v>
       </c>
-      <c r="BI6" s="19">
+      <c r="BI6" s="18">
         <v>6</v>
       </c>
-      <c r="BJ6" s="19">
+      <c r="BJ6" s="18">
         <v>7</v>
       </c>
-      <c r="BK6" s="19">
+      <c r="BK6" s="18">
         <v>9</v>
       </c>
-      <c r="BL6" s="19">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="19">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="19">
+      <c r="BL6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="18">
         <v>7</v>
       </c>
-      <c r="BO6" s="19">
+      <c r="BO6" s="18">
         <v>3</v>
       </c>
-      <c r="BP6" s="19">
+      <c r="BP6" s="18">
         <v>4</v>
       </c>
-      <c r="BQ6" s="19">
+      <c r="BQ6" s="18">
         <v>4</v>
       </c>
-      <c r="BR6" s="19">
+      <c r="BR6" s="18">
         <v>4</v>
       </c>
-      <c r="BS6" s="19">
+      <c r="BS6" s="18">
         <v>9</v>
       </c>
-      <c r="BT6" s="19">
+      <c r="BT6" s="18">
         <v>7</v>
       </c>
-      <c r="BU6" s="19">
+      <c r="BU6" s="18">
         <v>6</v>
       </c>
-      <c r="BV6" s="19">
+      <c r="BV6" s="18">
         <v>7</v>
       </c>
-      <c r="BW6" s="19">
+      <c r="BW6" s="18">
         <v>9</v>
       </c>
-      <c r="BX6" s="19">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="19">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="19">
+      <c r="BX6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="18">
         <v>7</v>
       </c>
-      <c r="CA6" s="19">
+      <c r="CA6" s="18">
         <v>3</v>
       </c>
-      <c r="CB6" s="19">
+      <c r="CB6" s="18">
         <v>4</v>
       </c>
-      <c r="CC6" s="19">
+      <c r="CC6" s="18">
         <v>4</v>
       </c>
-      <c r="CD6" s="19">
+      <c r="CD6" s="18">
         <v>4</v>
       </c>
-      <c r="CE6" s="19">
+      <c r="CE6" s="18">
         <v>9</v>
       </c>
-      <c r="CF6" s="19">
+      <c r="CF6" s="18">
         <v>7</v>
       </c>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="19"/>
-      <c r="CI6" s="19"/>
+      <c r="CG6" s="18"/>
+      <c r="CH6" s="18"/>
+      <c r="CI6" s="18"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="2"/>
@@ -3106,59 +3083,59 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22"/>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22"/>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-    </row>
-    <row r="8" s="16" customFormat="1" ht="13.5" customHeight="1">
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3195,56 +3172,56 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
-      <c r="BK8" s="19"/>
-      <c r="BL8" s="19"/>
-      <c r="BM8" s="19"/>
-      <c r="BN8" s="19"/>
-      <c r="BO8" s="19"/>
-      <c r="BP8" s="19"/>
-      <c r="BQ8" s="19"/>
-      <c r="BR8" s="19"/>
-      <c r="BT8" s="19"/>
-      <c r="BU8" s="19"/>
-      <c r="BV8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BX8" s="19"/>
-      <c r="BY8" s="19"/>
-      <c r="BZ8" s="19"/>
-      <c r="CA8" s="19"/>
-      <c r="CB8" s="19"/>
-      <c r="CC8" s="19"/>
-      <c r="CD8" s="19"/>
-      <c r="CE8" s="19"/>
-      <c r="CF8" s="19"/>
-      <c r="CG8" s="19"/>
-      <c r="CH8" s="19"/>
-      <c r="CI8" s="19"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
+      <c r="CB8" s="18"/>
+      <c r="CC8" s="18"/>
+      <c r="CD8" s="18"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="18"/>
+      <c r="CG8" s="18"/>
+      <c r="CH8" s="18"/>
+      <c r="CI8" s="18"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
@@ -3283,36 +3260,36 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23"/>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BO9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23"/>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CD9" s="23"/>
-    </row>
-    <row r="10" s="16" customFormat="1" ht="13.5" customHeight="1">
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18"/>
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CD9" s="18"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3349,32 +3326,32 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="19"/>
-      <c r="BI10" s="19"/>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="19"/>
-      <c r="BL10" s="19"/>
-      <c r="BO10" s="19"/>
-      <c r="BU10" s="19"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="19"/>
-      <c r="BY10" s="19"/>
-      <c r="BZ10" s="19"/>
-      <c r="CB10" s="19"/>
-      <c r="CD10" s="19"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CD10" s="18"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
@@ -3413,34 +3390,34 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AX11" s="23"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="23"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="23"/>
-      <c r="BO11" s="23"/>
-      <c r="BU11" s="23"/>
-      <c r="BV11" s="23"/>
-      <c r="BW11" s="23"/>
-      <c r="BX11" s="23"/>
-      <c r="BY11" s="23"/>
-      <c r="BZ11" s="23"/>
-      <c r="CB11" s="23"/>
-      <c r="CD11" s="23"/>
-    </row>
-    <row r="12" s="16" customFormat="1" ht="13.5" customHeight="1">
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CD11" s="18"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3477,32 +3454,32 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BO12" s="19"/>
-      <c r="BU12" s="19"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BX12" s="19"/>
-      <c r="BY12" s="19"/>
-      <c r="BZ12" s="19"/>
-      <c r="CB12" s="19"/>
-      <c r="CD12" s="19"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CD12" s="18"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="2"/>
@@ -3541,100 +3518,100 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="BE13" s="23"/>
-      <c r="BF13" s="23"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="23"/>
-      <c r="BK13" s="23"/>
-      <c r="BL13" s="23"/>
-      <c r="BO13" s="23"/>
-      <c r="BU13" s="23"/>
-      <c r="BV13" s="23"/>
-      <c r="BW13" s="23"/>
-      <c r="BX13" s="23"/>
-      <c r="BY13" s="23"/>
-      <c r="BZ13" s="23"/>
-      <c r="CB13" s="23"/>
-      <c r="CD13" s="23"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BU13" s="18"/>
+      <c r="BV13" s="18"/>
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="BY13" s="18"/>
+      <c r="BZ13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CD13" s="18"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="T14" s="13"/>
+      <c r="T14" s="14"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
-      <c r="Z14" s="13"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
-      <c r="AF14" s="13"/>
+      <c r="AF14" s="14"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
-      <c r="AL14" s="13"/>
+      <c r="AL14" s="14"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
-      <c r="AR14" s="13"/>
+      <c r="AR14" s="14"/>
       <c r="AS14" s="11"/>
       <c r="AT14" s="11"/>
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
-      <c r="AX14" s="13"/>
+      <c r="AX14" s="14"/>
       <c r="AY14" s="11"/>
       <c r="AZ14" s="11"/>
       <c r="BA14" s="11"/>
       <c r="BB14" s="11"/>
-      <c r="BD14" s="13"/>
+      <c r="BD14" s="14"/>
       <c r="BE14" s="11"/>
       <c r="BF14" s="11"/>
       <c r="BG14" s="11"/>
       <c r="BH14" s="11"/>
-      <c r="BJ14" s="13"/>
+      <c r="BJ14" s="14"/>
       <c r="BK14" s="11"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
       <c r="BN14" s="11"/>
-      <c r="BP14" s="13"/>
+      <c r="BP14" s="14"/>
       <c r="BQ14" s="11"/>
       <c r="BR14" s="11"/>
       <c r="BS14" s="11"/>
       <c r="BT14" s="11"/>
-      <c r="BV14" s="13"/>
+      <c r="BV14" s="14"/>
       <c r="BW14" s="11"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="11"/>
       <c r="BZ14" s="11"/>
-      <c r="CB14" s="13"/>
+      <c r="CB14" s="14"/>
       <c r="CC14" s="11"/>
       <c r="CD14" s="11"/>
       <c r="CE14" s="11"/>
@@ -3676,49 +3653,49 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AL15" s="13"/>
+      <c r="AL15" s="14"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
-      <c r="AR15" s="13"/>
+      <c r="AR15" s="14"/>
       <c r="AS15" s="11"/>
       <c r="AT15" s="11"/>
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
-      <c r="AX15" s="13"/>
+      <c r="AX15" s="14"/>
       <c r="AY15" s="11"/>
       <c r="AZ15" s="11"/>
       <c r="BA15" s="11"/>
       <c r="BB15" s="11"/>
-      <c r="BD15" s="13"/>
+      <c r="BD15" s="14"/>
       <c r="BE15" s="11"/>
       <c r="BF15" s="11"/>
       <c r="BG15" s="11"/>
       <c r="BH15" s="11"/>
-      <c r="BJ15" s="13"/>
+      <c r="BJ15" s="14"/>
       <c r="BK15" s="11"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="11"/>
       <c r="BN15" s="11"/>
-      <c r="BP15" s="13"/>
+      <c r="BP15" s="14"/>
       <c r="BQ15" s="11"/>
       <c r="BR15" s="11"/>
       <c r="BS15" s="11"/>
       <c r="BT15" s="11"/>
-      <c r="BV15" s="13"/>
+      <c r="BV15" s="14"/>
       <c r="BW15" s="11"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="11"/>
       <c r="BZ15" s="11"/>
-      <c r="CB15" s="13"/>
+      <c r="CB15" s="14"/>
       <c r="CC15" s="11"/>
       <c r="CD15" s="11"/>
       <c r="CE15" s="11"/>
       <c r="CF15" s="11"/>
     </row>
     <row r="16" s="15" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="14"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3750,14 +3727,14 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
-      <c r="AK16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BU16" s="14"/>
-      <c r="CA16" s="14"/>
+      <c r="AK16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BO16" s="22"/>
+      <c r="BU16" s="22"/>
+      <c r="CA16" s="22"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="B17" s="15"/>
@@ -3793,165 +3770,163 @@
       <c r="AF17" s="15"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-      <c r="BP18" s="13"/>
-      <c r="BQ18" s="13"/>
-      <c r="BR18" s="13"/>
-      <c r="BS18" s="13"/>
-      <c r="BT18" s="13"/>
-      <c r="BU18" s="13"/>
-      <c r="BV18" s="13"/>
-      <c r="BW18" s="13"/>
-      <c r="BX18" s="13"/>
-      <c r="BY18" s="13"/>
-      <c r="BZ18" s="13"/>
-      <c r="CA18" s="13"/>
-      <c r="CB18" s="13"/>
-      <c r="CC18" s="13"/>
-      <c r="CD18" s="13"/>
-      <c r="CE18" s="13"/>
-      <c r="CF18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="14"/>
+      <c r="BQ18" s="14"/>
+      <c r="BR18" s="14"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="14"/>
+      <c r="BU18" s="14"/>
+      <c r="BV18" s="14"/>
+      <c r="BW18" s="14"/>
+      <c r="BX18" s="14"/>
+      <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
+      <c r="CA18" s="14"/>
+      <c r="CB18" s="14"/>
+      <c r="CC18" s="14"/>
+      <c r="CD18" s="14"/>
+      <c r="CE18" s="14"/>
+      <c r="CF18" s="14"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="AE19" s="13"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
+      <c r="AE19" s="14"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="D23" s="27"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="D24" s="27"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
       <c r="AP25" s="3"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="D26" s="27"/>
+      <c r="D26" s="26"/>
       <c r="AP26" s="8"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="D27" s="27"/>
-      <c r="AP27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="AP27" s="27"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="D29" s="27"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="D30" s="27"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" ht="13.5" customHeight="1"/>
     <row r="32" ht="46.5" customHeight="1">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
     </row>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="lessThan" rank="0" text="" id="{006500DC-0004-4D61-BC0D-004A001700B6}">
+          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="lessThan" rank="0" text="" id="{00C9009C-00F7-4DB1-A6FB-00EE00E000A7}">
             <xm:f>B$16</xm:f>
             <x14:dxf>
-              <font>
-                <color indexed="64"/>
-              </font>
+              <font/>
               <fill>
                 <patternFill patternType="solid">
                   <fgColor indexed="2"/>
@@ -4009,7 +3984,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="str">
@@ -4350,257 +4325,257 @@
       <c r="CL1" s="3"/>
       <c r="CM1" s="3"/>
     </row>
-    <row r="2" s="29" customFormat="1" ht="63" customHeight="1">
+    <row r="2" s="28" customFormat="1" ht="63" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AD2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AJ2" s="32" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AK2" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AL2" s="32" t="s">
+      <c r="AL2" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AM2" s="32" t="s">
+      <c r="AM2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AN2" s="32" t="s">
+      <c r="AN2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AO2" s="32" t="s">
+      <c r="AO2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AP2" s="32" t="s">
+      <c r="AP2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AQ2" s="32" t="s">
+      <c r="AQ2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AR2" s="32" t="s">
+      <c r="AR2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AS2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="32" t="s">
+      <c r="AT2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AU2" s="32" t="s">
+      <c r="AU2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AV2" s="32" t="s">
+      <c r="AV2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AW2" s="32" t="s">
+      <c r="AW2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AX2" s="32" t="s">
+      <c r="AX2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AY2" s="32" t="s">
+      <c r="AY2" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="AZ2" s="32" t="s">
+      <c r="AZ2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="BA2" s="32" t="s">
+      <c r="BA2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="BB2" s="32" t="s">
+      <c r="BB2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="BC2" s="32" t="s">
+      <c r="BC2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="32" t="s">
+      <c r="BD2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="BE2" s="32" t="s">
+      <c r="BE2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="BF2" s="32" t="s">
+      <c r="BF2" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="BG2" s="32" t="s">
+      <c r="BG2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="BH2" s="32" t="s">
+      <c r="BH2" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="BI2" s="32" t="s">
+      <c r="BI2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="BJ2" s="32" t="s">
+      <c r="BJ2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="BK2" s="32" t="s">
+      <c r="BK2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="BL2" s="32" t="s">
+      <c r="BL2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="BM2" s="32" t="s">
+      <c r="BM2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="BN2" s="32" t="s">
+      <c r="BN2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="BO2" s="32" t="s">
+      <c r="BO2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="BP2" s="32" t="s">
+      <c r="BP2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="BQ2" s="32" t="s">
+      <c r="BQ2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BR2" s="32" t="s">
+      <c r="BR2" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="BS2" s="32" t="s">
+      <c r="BS2" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="BT2" s="32" t="s">
+      <c r="BT2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" s="32" t="s">
+      <c r="BU2" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="BV2" s="32" t="s">
+      <c r="BV2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="BW2" s="32" t="s">
+      <c r="BW2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="BX2" s="32" t="s">
+      <c r="BX2" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="BY2" s="32" t="s">
+      <c r="BY2" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="BZ2" s="32" t="s">
+      <c r="BZ2" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="CA2" s="32" t="s">
+      <c r="CA2" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="CB2" s="32" t="s">
+      <c r="CB2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="CC2" s="32" t="s">
+      <c r="CC2" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="CD2" s="32" t="s">
+      <c r="CD2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="CE2" s="32" t="s">
+      <c r="CE2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="CF2" s="32" t="s">
+      <c r="CF2" s="31" t="s">
         <v>160</v>
       </c>
       <c r="CG2" s="8"/>
@@ -4613,360 +4588,360 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="28">
+        <v>168</v>
+      </c>
+      <c r="C3" s="27">
         <f>SUM(C4:C189)</f>
         <v>13</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <f>SUM(D4:D189)</f>
         <v>13</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <f>SUM(E4:E189)</f>
         <v>119</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <f>SUM(F4:F189)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <f>SUM(G4:G189)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <f>SUM(H4:H189)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <f>SUM(I4:I189)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <f>SUM(J4:J189)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <f>SUM(K4:K189)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="27">
         <f>SUM(L4:L189)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="27">
         <f>SUM(M4:M189)</f>
         <v>2</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="27">
         <f>SUM(N4:N189)</f>
         <v>8</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="27">
         <f>SUM(O4:O189)</f>
         <v>17</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <f>SUM(P4:P189)</f>
         <v>26</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <f>SUM(Q4:Q189)</f>
         <v>5</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="27">
         <f>SUM(R4:R189)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <f>SUM(S4:S189)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f>SUM(T4:T189)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f>SUM(U4:U189)</f>
         <v>2</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f>SUM(V4:V189)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f>SUM(W4:W189)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="27">
         <f>SUM(X4:X189)</f>
         <v>1</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="27">
         <f>SUM(Y4:Y189)</f>
         <v>3</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="27">
         <f>SUM(Z4:Z189)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="27">
         <f>SUM(AA4:AA189)</f>
         <v>3</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="27">
         <f>SUM(AB4:AB189)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="27">
         <f>SUM(AC4:AC189)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="27">
         <f>SUM(AD4:AD189)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="27">
         <f>SUM(AE4:AE189)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="27">
         <f>SUM(AF4:AF189)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="27">
         <f>SUM(AG4:AG189)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="27">
         <f>SUM(AH4:AH189)</f>
         <v>1</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="27">
         <f>SUM(AI4:AI189)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="27">
         <f>SUM(AJ4:AJ189)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="27">
         <f>SUM(AK4:AK189)</f>
         <v>3</v>
       </c>
-      <c r="AL3" s="28">
+      <c r="AL3" s="27">
         <f>SUM(AL4:AL189)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="27">
         <f>SUM(AM4:AM189)</f>
         <v>1</v>
       </c>
-      <c r="AN3" s="28">
+      <c r="AN3" s="27">
         <f>SUM(AN4:AN189)</f>
         <v>3</v>
       </c>
-      <c r="AO3" s="28">
+      <c r="AO3" s="27">
         <f>SUM(AO4:AO189)</f>
         <v>2</v>
       </c>
-      <c r="AP3" s="28">
+      <c r="AP3" s="27">
         <f>SUM(AP4:AP189)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="28">
+      <c r="AQ3" s="27">
         <f>SUM(AQ4:AQ189)</f>
         <v>0</v>
       </c>
-      <c r="AR3" s="28">
+      <c r="AR3" s="27">
         <f>SUM(AR4:AR189)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="28">
+      <c r="AS3" s="27">
         <f>SUM(AS4:AS189)</f>
         <v>1</v>
       </c>
-      <c r="AT3" s="28">
+      <c r="AT3" s="27">
         <f>SUM(AT4:AT189)</f>
         <v>2</v>
       </c>
-      <c r="AU3" s="28">
+      <c r="AU3" s="27">
         <f>SUM(AU4:AU189)</f>
         <v>2</v>
       </c>
-      <c r="AV3" s="28">
+      <c r="AV3" s="27">
         <f>SUM(AV4:AV189)</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="28">
+      <c r="AW3" s="27">
         <f>SUM(AW4:AW189)</f>
         <v>0</v>
       </c>
-      <c r="AX3" s="28">
+      <c r="AX3" s="27">
         <f>SUM(AX4:AX189)</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="28">
+      <c r="AY3" s="27">
         <f>SUM(AY4:AY189)</f>
         <v>0</v>
       </c>
-      <c r="AZ3" s="28">
+      <c r="AZ3" s="27">
         <f>SUM(AZ4:AZ189)</f>
         <v>0</v>
       </c>
-      <c r="BA3" s="28">
+      <c r="BA3" s="27">
         <f>SUM(BA4:BA189)</f>
         <v>0</v>
       </c>
-      <c r="BB3" s="28">
+      <c r="BB3" s="27">
         <f>SUM(BB4:BB189)</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="28">
+      <c r="BC3" s="27">
         <f>SUM(BC4:BC189)</f>
         <v>1</v>
       </c>
-      <c r="BD3" s="28">
+      <c r="BD3" s="27">
         <f>SUM(BD4:BD189)</f>
         <v>0</v>
       </c>
-      <c r="BE3" s="28">
+      <c r="BE3" s="27">
         <f>SUM(BE4:BE189)</f>
         <v>0</v>
       </c>
-      <c r="BF3" s="28">
+      <c r="BF3" s="27">
         <f>SUM(BF4:BF189)</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="28">
+      <c r="BG3" s="27">
         <f>SUM(BG4:BG189)</f>
         <v>0</v>
       </c>
-      <c r="BH3" s="28">
+      <c r="BH3" s="27">
         <f>SUM(BH4:BH189)</f>
         <v>0</v>
       </c>
-      <c r="BI3" s="28">
+      <c r="BI3" s="27">
         <f>SUM(BI4:BI189)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" s="28">
+      <c r="BJ3" s="27">
         <f>SUM(BJ4:BJ189)</f>
         <v>8</v>
       </c>
-      <c r="BK3" s="28">
+      <c r="BK3" s="27">
         <f>SUM(BK4:BK189)</f>
         <v>2</v>
       </c>
-      <c r="BL3" s="28">
+      <c r="BL3" s="27">
         <f>SUM(BL4:BL189)</f>
         <v>1</v>
       </c>
-      <c r="BM3" s="28">
+      <c r="BM3" s="27">
         <f>SUM(BM4:BM189)</f>
         <v>3</v>
       </c>
-      <c r="BN3" s="28">
+      <c r="BN3" s="27">
         <f>SUM(BN4:BN189)</f>
         <v>0</v>
       </c>
-      <c r="BO3" s="28">
+      <c r="BO3" s="27">
         <f>SUM(BO4:BO189)</f>
         <v>0</v>
       </c>
-      <c r="BP3" s="28">
+      <c r="BP3" s="27">
         <f>SUM(BP4:BP189)</f>
         <v>0</v>
       </c>
-      <c r="BQ3" s="28">
+      <c r="BQ3" s="27">
         <f>SUM(BQ4:BQ189)</f>
         <v>0</v>
       </c>
-      <c r="BR3" s="28">
+      <c r="BR3" s="27">
         <f>SUM(BR4:BR189)</f>
         <v>0</v>
       </c>
-      <c r="BS3" s="28">
+      <c r="BS3" s="27">
         <f>SUM(BS4:BS189)</f>
         <v>0</v>
       </c>
-      <c r="BT3" s="28">
+      <c r="BT3" s="27">
         <f>SUM(BT4:BT189)</f>
         <v>0</v>
       </c>
-      <c r="BU3" s="28">
+      <c r="BU3" s="27">
         <f>SUM(BU4:BU189)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="28">
+      <c r="BV3" s="27">
         <f>SUM(BV4:BV189)</f>
         <v>0</v>
       </c>
-      <c r="BW3" s="28">
+      <c r="BW3" s="27">
         <f>SUM(BW4:BW189)</f>
         <v>0</v>
       </c>
-      <c r="BX3" s="28">
+      <c r="BX3" s="27">
         <f>SUM(BX4:BX189)</f>
         <v>0</v>
       </c>
-      <c r="BY3" s="28">
+      <c r="BY3" s="27">
         <f>SUM(BY4:BY189)</f>
         <v>1</v>
       </c>
-      <c r="BZ3" s="28">
+      <c r="BZ3" s="27">
         <f>SUM(BZ4:BZ189)</f>
         <v>0</v>
       </c>
-      <c r="CA3" s="28">
+      <c r="CA3" s="27">
         <f>SUM(CA4:CA189)</f>
         <v>0</v>
       </c>
-      <c r="CB3" s="28">
+      <c r="CB3" s="27">
         <f>SUM(CB4:CB189)</f>
         <v>0</v>
       </c>
-      <c r="CC3" s="28">
+      <c r="CC3" s="27">
         <f>SUM(CC4:CC189)</f>
         <v>0</v>
       </c>
-      <c r="CD3" s="28">
+      <c r="CD3" s="27">
         <f>SUM(CD4:CD189)</f>
         <v>0</v>
       </c>
-      <c r="CE3" s="28">
+      <c r="CE3" s="27">
         <f>SUM(CE4:CE189)</f>
         <v>0</v>
       </c>
-      <c r="CF3" s="28">
+      <c r="CF3" s="27">
         <f>SUM(CF4:CF189)</f>
         <v>0</v>
       </c>
-      <c r="CG3" s="28"/>
-      <c r="CH3" s="28"/>
-      <c r="CI3" s="28"/>
-      <c r="CJ3" s="28"/>
-      <c r="CK3" s="28"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="28"/>
+      <c r="CG3" s="27"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="27"/>
+      <c r="CJ3" s="27"/>
+      <c r="CK3" s="27"/>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="27"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="32">
         <v>44665</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="33">
+      <c r="A5" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="32">
         <v>44666</v>
       </c>
       <c r="E5" s="11">
@@ -4976,10 +4951,10 @@
       <c r="AO5" s="11"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="33">
+      <c r="A6" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="32">
         <v>44672</v>
       </c>
       <c r="E6" s="11">
@@ -4989,10 +4964,10 @@
       <c r="AO6" s="15"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="33">
+      <c r="A7" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="32">
         <v>44676</v>
       </c>
       <c r="C7" s="11">
@@ -5003,10 +4978,10 @@
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="A8" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="32">
         <v>44679</v>
       </c>
       <c r="C8" s="11">
@@ -5023,10 +4998,10 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="33">
+      <c r="A9" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="32">
         <v>44679</v>
       </c>
       <c r="P9" s="11">
@@ -5037,10 +5012,10 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="33">
+      <c r="A10" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="32">
         <v>44686</v>
       </c>
       <c r="N10" s="11">
@@ -5048,10 +5023,10 @@
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="33">
+      <c r="A11" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="32">
         <v>44692</v>
       </c>
       <c r="Y11" s="11">
@@ -5059,10 +5034,10 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="33">
+      <c r="A12" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="32">
         <v>44694</v>
       </c>
       <c r="M12" s="11">
@@ -5076,10 +5051,10 @@
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="33">
+      <c r="A13" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="32">
         <v>44715</v>
       </c>
       <c r="BK13" s="11">
@@ -5087,10 +5062,10 @@
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="A14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="32">
         <v>44721</v>
       </c>
       <c r="AK14" s="11">
@@ -5101,10 +5076,10 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="32">
         <v>44725</v>
       </c>
       <c r="F15" s="11">
@@ -5112,10 +5087,10 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="A16" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="32">
         <v>44725</v>
       </c>
       <c r="L16" s="11">
@@ -5126,10 +5101,10 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="A17" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="32">
         <v>44728</v>
       </c>
       <c r="N17" s="11">
@@ -5137,10 +5112,10 @@
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="A18" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="32">
         <v>44728</v>
       </c>
       <c r="E18" s="11">
@@ -5148,10 +5123,10 @@
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="A19" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="32">
         <v>44729</v>
       </c>
       <c r="BY19" s="11">
@@ -5159,10 +5134,10 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="33">
+      <c r="A20" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="32">
         <v>44733</v>
       </c>
       <c r="K20" s="11">
@@ -5170,10 +5145,10 @@
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="33">
+      <c r="A21" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="32">
         <v>44734</v>
       </c>
       <c r="BL21" s="11">
@@ -5181,10 +5156,10 @@
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="33">
+      <c r="A22" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="32">
         <v>44733</v>
       </c>
       <c r="E22" s="11">
@@ -5192,10 +5167,10 @@
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="33">
+      <c r="A23" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="32">
         <v>44735</v>
       </c>
       <c r="Q23" s="11">
@@ -5203,10 +5178,10 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="33">
+      <c r="A24" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="32">
         <v>44739</v>
       </c>
       <c r="AA24" s="11">
@@ -5220,10 +5195,10 @@
       </c>
     </row>
     <row r="25" ht="28.5" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="33">
+      <c r="A25" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="32">
         <v>44741</v>
       </c>
       <c r="BJ25" s="11">
@@ -5234,10 +5209,10 @@
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="33">
+      <c r="A26" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="32">
         <v>44742</v>
       </c>
       <c r="O26" s="11">
@@ -5248,10 +5223,10 @@
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="33">
+      <c r="A27" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="32">
         <v>44746</v>
       </c>
       <c r="AT27" s="11">
@@ -5259,10 +5234,10 @@
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="33">
+      <c r="A28" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="32">
         <v>44747</v>
       </c>
       <c r="O28" s="11">
@@ -5273,10 +5248,10 @@
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="33">
+      <c r="A29" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="32">
         <v>44749</v>
       </c>
       <c r="C29" s="11">
@@ -5284,10 +5259,10 @@
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="33">
+      <c r="A30" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="32">
         <v>44760</v>
       </c>
       <c r="Q30" s="11">
@@ -5295,10 +5270,10 @@
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="33">
+      <c r="A31" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="32">
         <v>44763</v>
       </c>
       <c r="AO31" s="1">
@@ -5306,10 +5281,10 @@
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="33">
+      <c r="A32" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="32">
         <v>44764</v>
       </c>
       <c r="D32" s="11">
@@ -5317,10 +5292,10 @@
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="33">
+      <c r="A33" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="32">
         <v>44768</v>
       </c>
       <c r="C33" s="11">
@@ -5328,10 +5303,10 @@
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="33">
+      <c r="A34" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="32">
         <v>44769</v>
       </c>
       <c r="AN34" s="1">
@@ -5339,10 +5314,10 @@
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="33">
+      <c r="A35" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="32">
         <v>44790</v>
       </c>
       <c r="E35" s="11">
@@ -5350,10 +5325,10 @@
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="33">
+      <c r="A36" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="32">
         <v>44805</v>
       </c>
       <c r="O36" s="11">
@@ -5364,10 +5339,10 @@
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="33">
+      <c r="A37" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="32">
         <v>44811</v>
       </c>
       <c r="D37" s="11">
@@ -5375,10 +5350,10 @@
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="33">
+      <c r="A38" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="32">
         <v>44818</v>
       </c>
       <c r="C38" s="11">
@@ -5395,10 +5370,10 @@
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="33">
+      <c r="A39" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="32">
         <v>44819</v>
       </c>
       <c r="E39" s="11">
@@ -5406,10 +5381,10 @@
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="33">
+      <c r="A40" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="32">
         <v>44824</v>
       </c>
       <c r="AO40" s="1">
@@ -5417,10 +5392,10 @@
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="33">
+      <c r="A41" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="32">
         <v>44832</v>
       </c>
       <c r="E41" s="11">
@@ -5428,10 +5403,10 @@
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="33">
+      <c r="A42" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="32">
         <v>44839</v>
       </c>
       <c r="M42" s="11">
@@ -5442,10 +5417,10 @@
       </c>
     </row>
     <row r="43" ht="28.5" customHeight="1">
-      <c r="A43" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="33">
+      <c r="A43" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="32">
         <v>44841</v>
       </c>
       <c r="Y43" s="11">
@@ -5453,10 +5428,10 @@
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="33">
+      <c r="A44" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="32">
         <v>44848</v>
       </c>
       <c r="D44" s="11">
@@ -5467,10 +5442,10 @@
       </c>
     </row>
     <row r="45" ht="28.5" customHeight="1">
-      <c r="A45" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="33">
+      <c r="A45" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="32">
         <v>44853</v>
       </c>
       <c r="P45" s="11">
@@ -5478,10 +5453,10 @@
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="33">
+      <c r="A46" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="32">
         <v>44853</v>
       </c>
       <c r="BK46" s="11">
@@ -5489,10 +5464,10 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="33">
+      <c r="A47" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="32">
         <v>44853</v>
       </c>
       <c r="AM47" s="11">
@@ -5500,10 +5475,10 @@
       </c>
     </row>
     <row r="48" ht="28.5" customHeight="1">
-      <c r="A48" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="33">
+      <c r="A48" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="32">
         <v>44854</v>
       </c>
       <c r="AK48" s="11">
@@ -5511,10 +5486,10 @@
       </c>
     </row>
     <row r="49" ht="34.5" customHeight="1">
-      <c r="A49" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="33">
+      <c r="A49" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="32">
         <v>44860</v>
       </c>
       <c r="O49" s="11">
@@ -5525,10 +5500,10 @@
       </c>
     </row>
     <row r="50" ht="28.5" customHeight="1">
-      <c r="A50" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="33">
+      <c r="A50" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="32">
         <v>44861</v>
       </c>
       <c r="AU50" s="11">
@@ -5536,10 +5511,10 @@
       </c>
     </row>
     <row r="51" ht="28.5" customHeight="1">
-      <c r="A51" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="33">
+      <c r="A51" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="32">
         <v>44861</v>
       </c>
       <c r="AT51" s="11">
@@ -5547,10 +5522,10 @@
       </c>
     </row>
     <row r="52" ht="28.5" customHeight="1">
-      <c r="A52" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52" s="33">
+      <c r="A52" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="32">
         <v>44865</v>
       </c>
       <c r="BJ52" s="11">
@@ -5558,10 +5533,10 @@
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="33">
+      <c r="A53" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="32">
         <v>44867</v>
       </c>
       <c r="R53" s="11">
@@ -5569,670 +5544,670 @@
       </c>
     </row>
     <row r="54" ht="28.5" customHeight="1">
-      <c r="A54" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B54" s="33">
+      <c r="A54" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="32">
         <v>44873</v>
       </c>
-      <c r="BE54" s="34"/>
+      <c r="BE54" s="33"/>
       <c r="BM54" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" s="33">
+      <c r="A55" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="32">
         <v>44872</v>
       </c>
       <c r="AN55" s="1">
         <v>1</v>
       </c>
-      <c r="BE55" s="34"/>
+      <c r="BE55" s="33"/>
     </row>
     <row r="56" ht="28.5" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="33"/>
-      <c r="BE56" s="34"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="32"/>
+      <c r="BE56" s="33"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="33"/>
-      <c r="BE57" s="34"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="32"/>
+      <c r="BE57" s="33"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="32"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="32"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="32"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="32"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="32"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="32"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="32"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="32"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="32"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="32"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="32"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="32"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="33"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="32"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="32"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="32"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="32"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="33"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="32"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="32"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="32"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="32"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="32"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="32"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="32"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="32"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="33"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="32"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="33"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="32"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="32"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="32"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="32"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="29"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="32"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="32"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="32"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="32"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="33"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="32"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="32"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="32"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="33"/>
-    </row>
-    <row r="95" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38"/>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="38"/>
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="38"/>
-      <c r="AF95" s="38"/>
-      <c r="AG95" s="38"/>
-      <c r="AH95" s="38"/>
-      <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="38"/>
-      <c r="AL95" s="38"/>
-      <c r="AM95" s="38"/>
-      <c r="AP95" s="38"/>
-      <c r="AQ95" s="38"/>
-      <c r="AR95" s="38"/>
-      <c r="AS95" s="38"/>
-      <c r="AT95" s="38"/>
-      <c r="AU95" s="38"/>
-      <c r="AV95" s="38"/>
-      <c r="AW95" s="38"/>
-      <c r="AX95" s="38"/>
-      <c r="AY95" s="38"/>
-      <c r="AZ95" s="38"/>
-      <c r="BA95" s="38"/>
-      <c r="BB95" s="38"/>
-      <c r="BC95" s="38"/>
-      <c r="BD95" s="38"/>
-      <c r="BE95" s="39"/>
-      <c r="BF95" s="38"/>
-      <c r="BG95" s="38"/>
-      <c r="BH95" s="38"/>
-      <c r="BI95" s="38"/>
-      <c r="BJ95" s="38"/>
-      <c r="BK95" s="38"/>
-      <c r="BL95" s="38"/>
-      <c r="BM95" s="38"/>
-      <c r="BN95" s="38"/>
-      <c r="BO95" s="38"/>
-      <c r="BP95" s="38"/>
-      <c r="BQ95" s="38"/>
-      <c r="BR95" s="38"/>
-      <c r="BS95" s="38"/>
-      <c r="BT95" s="38"/>
-      <c r="BU95" s="38"/>
-      <c r="BV95" s="38"/>
-      <c r="BW95" s="38"/>
-      <c r="BX95" s="38"/>
-      <c r="BY95" s="38"/>
-      <c r="BZ95" s="38"/>
-      <c r="CA95" s="38"/>
-      <c r="CB95" s="38"/>
-      <c r="CC95" s="38"/>
-      <c r="CD95" s="38"/>
-      <c r="CE95" s="39"/>
-      <c r="CF95" s="38"/>
-    </row>
-    <row r="96" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="41"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="43"/>
-      <c r="AE96" s="43"/>
-      <c r="AF96" s="43"/>
-      <c r="AG96" s="43"/>
-      <c r="AH96" s="43"/>
-      <c r="AI96" s="43"/>
-      <c r="AJ96" s="43"/>
-      <c r="AK96" s="43"/>
-      <c r="AL96" s="43"/>
-      <c r="AM96" s="43"/>
-      <c r="AP96" s="43"/>
-      <c r="AQ96" s="43"/>
-      <c r="AR96" s="43"/>
-      <c r="AS96" s="43"/>
-      <c r="AT96" s="43"/>
-      <c r="AU96" s="43"/>
-      <c r="AV96" s="43"/>
-      <c r="AW96" s="43"/>
-      <c r="AX96" s="43"/>
-      <c r="AY96" s="43"/>
-      <c r="AZ96" s="43"/>
-      <c r="BA96" s="43"/>
-      <c r="BB96" s="43"/>
-      <c r="BC96" s="43"/>
-      <c r="BD96" s="43"/>
-      <c r="BE96" s="44"/>
-      <c r="BF96" s="43"/>
-      <c r="BG96" s="43"/>
-      <c r="BH96" s="43"/>
-      <c r="BI96" s="43"/>
-      <c r="BJ96" s="43"/>
-      <c r="BK96" s="43"/>
-      <c r="BL96" s="43"/>
-      <c r="BM96" s="43"/>
-      <c r="BN96" s="43"/>
-      <c r="BO96" s="43"/>
-      <c r="BP96" s="43"/>
-      <c r="BQ96" s="43"/>
-      <c r="BR96" s="43"/>
-      <c r="BS96" s="43"/>
-      <c r="BT96" s="43"/>
-      <c r="BU96" s="43"/>
-      <c r="BV96" s="43"/>
-      <c r="BW96" s="43"/>
-      <c r="BX96" s="43"/>
-      <c r="BY96" s="43"/>
-      <c r="BZ96" s="43"/>
-      <c r="CA96" s="43"/>
-      <c r="CB96" s="43"/>
-      <c r="CC96" s="43"/>
-      <c r="CD96" s="43"/>
-      <c r="CE96" s="44"/>
-      <c r="CF96" s="43"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="32"/>
+    </row>
+    <row r="95" s="34" customFormat="1" ht="15" customHeight="1">
+      <c r="A95" s="35"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="37"/>
+      <c r="AA95" s="37"/>
+      <c r="AB95" s="37"/>
+      <c r="AC95" s="37"/>
+      <c r="AD95" s="37"/>
+      <c r="AE95" s="37"/>
+      <c r="AF95" s="37"/>
+      <c r="AG95" s="37"/>
+      <c r="AH95" s="37"/>
+      <c r="AI95" s="37"/>
+      <c r="AJ95" s="37"/>
+      <c r="AK95" s="37"/>
+      <c r="AL95" s="37"/>
+      <c r="AM95" s="37"/>
+      <c r="AP95" s="37"/>
+      <c r="AQ95" s="37"/>
+      <c r="AR95" s="37"/>
+      <c r="AS95" s="37"/>
+      <c r="AT95" s="37"/>
+      <c r="AU95" s="37"/>
+      <c r="AV95" s="37"/>
+      <c r="AW95" s="37"/>
+      <c r="AX95" s="37"/>
+      <c r="AY95" s="37"/>
+      <c r="AZ95" s="37"/>
+      <c r="BA95" s="37"/>
+      <c r="BB95" s="37"/>
+      <c r="BC95" s="37"/>
+      <c r="BD95" s="37"/>
+      <c r="BE95" s="38"/>
+      <c r="BF95" s="37"/>
+      <c r="BG95" s="37"/>
+      <c r="BH95" s="37"/>
+      <c r="BI95" s="37"/>
+      <c r="BJ95" s="37"/>
+      <c r="BK95" s="37"/>
+      <c r="BL95" s="37"/>
+      <c r="BM95" s="37"/>
+      <c r="BN95" s="37"/>
+      <c r="BO95" s="37"/>
+      <c r="BP95" s="37"/>
+      <c r="BQ95" s="37"/>
+      <c r="BR95" s="37"/>
+      <c r="BS95" s="37"/>
+      <c r="BT95" s="37"/>
+      <c r="BU95" s="37"/>
+      <c r="BV95" s="37"/>
+      <c r="BW95" s="37"/>
+      <c r="BX95" s="37"/>
+      <c r="BY95" s="37"/>
+      <c r="BZ95" s="37"/>
+      <c r="CA95" s="37"/>
+      <c r="CB95" s="37"/>
+      <c r="CC95" s="37"/>
+      <c r="CD95" s="37"/>
+      <c r="CE95" s="38"/>
+      <c r="CF95" s="37"/>
+    </row>
+    <row r="96" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42"/>
+      <c r="AA96" s="42"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="42"/>
+      <c r="AD96" s="42"/>
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="42"/>
+      <c r="AH96" s="42"/>
+      <c r="AI96" s="42"/>
+      <c r="AJ96" s="42"/>
+      <c r="AK96" s="42"/>
+      <c r="AL96" s="42"/>
+      <c r="AM96" s="42"/>
+      <c r="AP96" s="42"/>
+      <c r="AQ96" s="42"/>
+      <c r="AR96" s="42"/>
+      <c r="AS96" s="42"/>
+      <c r="AT96" s="42"/>
+      <c r="AU96" s="42"/>
+      <c r="AV96" s="42"/>
+      <c r="AW96" s="42"/>
+      <c r="AX96" s="42"/>
+      <c r="AY96" s="42"/>
+      <c r="AZ96" s="42"/>
+      <c r="BA96" s="42"/>
+      <c r="BB96" s="42"/>
+      <c r="BC96" s="42"/>
+      <c r="BD96" s="42"/>
+      <c r="BE96" s="43"/>
+      <c r="BF96" s="42"/>
+      <c r="BG96" s="42"/>
+      <c r="BH96" s="42"/>
+      <c r="BI96" s="42"/>
+      <c r="BJ96" s="42"/>
+      <c r="BK96" s="42"/>
+      <c r="BL96" s="42"/>
+      <c r="BM96" s="42"/>
+      <c r="BN96" s="42"/>
+      <c r="BO96" s="42"/>
+      <c r="BP96" s="42"/>
+      <c r="BQ96" s="42"/>
+      <c r="BR96" s="42"/>
+      <c r="BS96" s="42"/>
+      <c r="BT96" s="42"/>
+      <c r="BU96" s="42"/>
+      <c r="BV96" s="42"/>
+      <c r="BW96" s="42"/>
+      <c r="BX96" s="42"/>
+      <c r="BY96" s="42"/>
+      <c r="BZ96" s="42"/>
+      <c r="CA96" s="42"/>
+      <c r="CB96" s="42"/>
+      <c r="CC96" s="42"/>
+      <c r="CD96" s="42"/>
+      <c r="CE96" s="43"/>
+      <c r="CF96" s="42"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="B97" s="33"/>
+      <c r="B97" s="32"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="B98" s="33"/>
+      <c r="B98" s="32"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="33"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="32"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="32"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="33"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="32"/>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="B102" s="33"/>
+      <c r="B102" s="32"/>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="29"/>
-      <c r="B103" s="33"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="32"/>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="29"/>
-      <c r="B104" s="33"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="32"/>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="29"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="32"/>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="33"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="32"/>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="33"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="32"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="29"/>
-      <c r="B108" s="33"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="32"/>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="29"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="32"/>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="29"/>
-      <c r="B110" s="33"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="32"/>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="33"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="32"/>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="29"/>
-      <c r="B112" s="33"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="32"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="29"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="32"/>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="33"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="32"/>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" s="29"/>
-      <c r="B115" s="33"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="32"/>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="29"/>
-      <c r="B116" s="33"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="32"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="33"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="32"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="29"/>
-      <c r="B118" s="33"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="32"/>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="29"/>
-      <c r="B119" s="33"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="32"/>
       <c r="CI119" s="11"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="33"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="32"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="33"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="32"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="29"/>
-      <c r="B122" s="33"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="32"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="29"/>
-      <c r="B123" s="33"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="32"/>
       <c r="AO123" s="11"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="33"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="32"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="29"/>
-      <c r="B125" s="33"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="32"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="29"/>
-      <c r="B126" s="33"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="32"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="29"/>
-      <c r="B127" s="33"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="32"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="29"/>
-      <c r="B128" s="33"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="32"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="29"/>
-      <c r="B129" s="33"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="32"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="29"/>
-      <c r="B130" s="33"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="32"/>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="B131" s="33"/>
+      <c r="B131" s="32"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="B132" s="33"/>
+      <c r="B132" s="32"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="B133" s="33"/>
+      <c r="B133" s="32"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="B134" s="33"/>
+      <c r="B134" s="32"/>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="B135" s="33"/>
+      <c r="B135" s="32"/>
     </row>
     <row r="136" ht="18" customHeight="1">
-      <c r="A136" s="29"/>
-      <c r="B136" s="33"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="32"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="B137" s="33"/>
+      <c r="B137" s="32"/>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="B138" s="33"/>
+      <c r="B138" s="32"/>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="B139" s="33"/>
+      <c r="B139" s="32"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="B140" s="33"/>
+      <c r="B140" s="32"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="B141" s="33"/>
+      <c r="B141" s="32"/>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="B142" s="33"/>
+      <c r="B142" s="32"/>
     </row>
     <row r="143" ht="15" customHeight="1">
-      <c r="B143" s="33"/>
+      <c r="B143" s="32"/>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="B144" s="33"/>
+      <c r="B144" s="32"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="B145" s="33"/>
+      <c r="B145" s="32"/>
     </row>
     <row r="146" ht="15" customHeight="1">
-      <c r="B146" s="33"/>
+      <c r="B146" s="32"/>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="B147" s="33"/>
+      <c r="B147" s="32"/>
     </row>
     <row r="148" ht="15" customHeight="1">
-      <c r="B148" s="33"/>
+      <c r="B148" s="32"/>
     </row>
     <row r="149" ht="15" customHeight="1">
-      <c r="B149" s="33"/>
+      <c r="B149" s="32"/>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="B150" s="33"/>
+      <c r="B150" s="32"/>
     </row>
     <row r="151" ht="15" customHeight="1">
-      <c r="B151" s="33"/>
+      <c r="B151" s="32"/>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="B152" s="33"/>
+      <c r="B152" s="32"/>
     </row>
     <row r="153" ht="15" customHeight="1">
-      <c r="B153" s="33"/>
+      <c r="B153" s="32"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="B154" s="33"/>
+      <c r="B154" s="32"/>
     </row>
     <row r="155" ht="15" customHeight="1">
-      <c r="B155" s="33"/>
+      <c r="B155" s="32"/>
     </row>
     <row r="156" ht="15" customHeight="1">
-      <c r="B156" s="33"/>
+      <c r="B156" s="32"/>
       <c r="AO156" s="11"/>
     </row>
     <row r="157" ht="15" customHeight="1">
-      <c r="B157" s="33"/>
+      <c r="B157" s="32"/>
     </row>
     <row r="158" ht="15" customHeight="1">
-      <c r="B158" s="33"/>
+      <c r="B158" s="32"/>
     </row>
     <row r="159" ht="15" customHeight="1">
-      <c r="B159" s="33"/>
+      <c r="B159" s="32"/>
       <c r="AO159" s="11"/>
     </row>
     <row r="160" ht="15" customHeight="1">
-      <c r="B160" s="33"/>
+      <c r="B160" s="32"/>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="B161" s="33"/>
+      <c r="B161" s="32"/>
     </row>
     <row r="162" ht="15" customHeight="1">
-      <c r="B162" s="33"/>
+      <c r="B162" s="32"/>
     </row>
     <row r="163" ht="15" customHeight="1">
-      <c r="B163" s="33"/>
+      <c r="B163" s="32"/>
     </row>
     <row r="164" ht="15" customHeight="1">
-      <c r="B164" s="33"/>
+      <c r="B164" s="32"/>
     </row>
     <row r="165" ht="15" customHeight="1">
-      <c r="B165" s="33"/>
+      <c r="B165" s="32"/>
     </row>
     <row r="166" ht="15" customHeight="1">
-      <c r="B166" s="33"/>
+      <c r="B166" s="32"/>
     </row>
     <row r="167" ht="15" customHeight="1">
-      <c r="B167" s="33"/>
+      <c r="B167" s="32"/>
     </row>
     <row r="168" ht="15" customHeight="1">
-      <c r="B168" s="33"/>
+      <c r="B168" s="32"/>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="B169" s="33"/>
+      <c r="B169" s="32"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="B170" s="33"/>
+      <c r="B170" s="32"/>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="B171" s="33"/>
+      <c r="B171" s="32"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="B172" s="33"/>
+      <c r="B172" s="32"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="B173" s="33"/>
+      <c r="B173" s="32"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="B174" s="33"/>
+      <c r="B174" s="32"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="B175" s="33"/>
+      <c r="B175" s="32"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="29"/>
-      <c r="B176" s="33"/>
+      <c r="A176" s="28"/>
+      <c r="B176" s="32"/>
     </row>
     <row r="177" ht="15" customHeight="1">
-      <c r="B177" s="33"/>
+      <c r="B177" s="32"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="B178" s="33"/>
+      <c r="B178" s="32"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="B179" s="33"/>
+      <c r="B179" s="32"/>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="B180" s="33"/>
+      <c r="B180" s="32"/>
     </row>
     <row r="181" ht="15" customHeight="1">
-      <c r="B181" s="33"/>
+      <c r="B181" s="32"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="B182" s="33"/>
+      <c r="B182" s="32"/>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="B183" s="33"/>
+      <c r="B183" s="32"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="B184" s="33"/>
+      <c r="B184" s="32"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="B185" s="33"/>
+      <c r="B185" s="32"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="B186" s="33"/>
+      <c r="B186" s="32"/>
     </row>
     <row r="187" ht="15" customHeight="1">
-      <c r="B187" s="33"/>
+      <c r="B187" s="32"/>
       <c r="AO187" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6273,7 +6248,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="str">
@@ -6614,257 +6589,257 @@
       <c r="CL1" s="3"/>
       <c r="CM1" s="3"/>
     </row>
-    <row r="2" s="29" customFormat="1" ht="63" customHeight="1">
+    <row r="2" s="28" customFormat="1" ht="63" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AD2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AJ2" s="32" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AK2" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AL2" s="32" t="s">
+      <c r="AL2" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AM2" s="32" t="s">
+      <c r="AM2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AN2" s="32" t="s">
+      <c r="AN2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AO2" s="32" t="s">
+      <c r="AO2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AP2" s="32" t="s">
+      <c r="AP2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AQ2" s="32" t="s">
+      <c r="AQ2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AR2" s="32" t="s">
+      <c r="AR2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AS2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="32" t="s">
+      <c r="AT2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AU2" s="32" t="s">
+      <c r="AU2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AV2" s="32" t="s">
+      <c r="AV2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AW2" s="32" t="s">
+      <c r="AW2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AX2" s="32" t="s">
+      <c r="AX2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AY2" s="32" t="s">
+      <c r="AY2" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="AZ2" s="32" t="s">
+      <c r="AZ2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="BA2" s="32" t="s">
+      <c r="BA2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="BB2" s="32" t="s">
+      <c r="BB2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="BC2" s="32" t="s">
+      <c r="BC2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="32" t="s">
+      <c r="BD2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="BE2" s="32" t="s">
+      <c r="BE2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="BF2" s="32" t="s">
+      <c r="BF2" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="BG2" s="32" t="s">
+      <c r="BG2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="BH2" s="32" t="s">
+      <c r="BH2" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="BI2" s="32" t="s">
+      <c r="BI2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="BJ2" s="32" t="s">
+      <c r="BJ2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="BK2" s="32" t="s">
+      <c r="BK2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="BL2" s="32" t="s">
+      <c r="BL2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="BM2" s="32" t="s">
+      <c r="BM2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="BN2" s="32" t="s">
+      <c r="BN2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="BO2" s="32" t="s">
+      <c r="BO2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="BP2" s="32" t="s">
+      <c r="BP2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="BQ2" s="32" t="s">
+      <c r="BQ2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BR2" s="32" t="s">
+      <c r="BR2" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="BS2" s="32" t="s">
+      <c r="BS2" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="BT2" s="32" t="s">
+      <c r="BT2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" s="32" t="s">
+      <c r="BU2" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="BV2" s="32" t="s">
+      <c r="BV2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="BW2" s="32" t="s">
+      <c r="BW2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="BX2" s="32" t="s">
+      <c r="BX2" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="BY2" s="32" t="s">
+      <c r="BY2" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="BZ2" s="32" t="s">
+      <c r="BZ2" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="CA2" s="32" t="s">
+      <c r="CA2" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="CB2" s="32" t="s">
+      <c r="CB2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="CC2" s="32" t="s">
+      <c r="CC2" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="CD2" s="32" t="s">
+      <c r="CD2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="CE2" s="32" t="s">
+      <c r="CE2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="CF2" s="32" t="s">
+      <c r="CF2" s="31" t="s">
         <v>160</v>
       </c>
       <c r="CG2" s="8"/>
@@ -6877,442 +6852,442 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="28">
+        <v>168</v>
+      </c>
+      <c r="C3" s="27">
         <f>SUM(C4:C59)</f>
         <v>27</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <f>SUM(D4:D59)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <f>SUM(E4:E59)</f>
         <v>139</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <f>SUM(F4:F59)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <f>SUM(G4:G59)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <f>SUM(H4:H59)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <f>SUM(I4:I59)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <f>SUM(J4:J59)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <f>SUM(K4:K59)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="27">
         <f>SUM(L4:L59)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="27">
         <f>SUM(M4:M59)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="27">
         <f>SUM(N4:N59)</f>
         <v>12</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="27">
         <f>SUM(O4:O59)</f>
         <v>14</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <f>SUM(P4:P59)</f>
         <v>15</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <f>SUM(Q4:Q59)</f>
         <v>5</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="27">
         <f>SUM(R4:R59)</f>
         <v>5</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <f>SUM(S4:S59)</f>
         <v>2</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f>SUM(T4:T59)</f>
         <v>3</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f>SUM(U4:U59)</f>
         <v>6</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f>SUM(V4:V59)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f>SUM(W4:W59)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="27">
         <f>SUM(X4:X59)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="27">
         <f>SUM(Y4:Y59)</f>
         <v>3</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="27">
         <f>SUM(Z4:Z59)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="27">
         <f>SUM(AA4:AA59)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="27">
         <f>SUM(AB4:AB59)</f>
         <v>2</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="27">
         <f>SUM(AC4:AC59)</f>
         <v>3</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="27">
         <f>SUM(AD4:AD59)</f>
         <v>1</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="27">
         <f>SUM(AE4:AE59)</f>
         <v>2</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="27">
         <f>SUM(AF4:AF59)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="27">
         <f>SUM(AG4:AG59)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="27">
         <f>SUM(AH4:AH59)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="27">
         <f>SUM(AI4:AI59)</f>
         <v>1</v>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="27">
         <f>SUM(AJ4:AJ59)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="27">
         <f>SUM(AK4:AK59)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="28">
+      <c r="AL3" s="27">
         <f>SUM(AL4:AL59)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="27">
         <f>SUM(AM4:AM59)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="28">
+      <c r="AN3" s="27">
         <f>SUM(AN4:AN59)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="28">
+      <c r="AO3" s="27">
         <f>SUM(AO4:AO59)</f>
         <v>2</v>
       </c>
-      <c r="AP3" s="28">
+      <c r="AP3" s="27">
         <f>SUM(AP4:AP59)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="28">
+      <c r="AQ3" s="27">
         <f>SUM(AQ4:AQ59)</f>
         <v>0</v>
       </c>
-      <c r="AR3" s="28">
+      <c r="AR3" s="27">
         <f>SUM(AR4:AR59)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="28">
+      <c r="AS3" s="27">
         <f>SUM(AS4:AS59)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="28">
+      <c r="AT3" s="27">
         <f>SUM(AT4:AT59)</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="28">
+      <c r="AU3" s="27">
         <f>SUM(AU4:AU59)</f>
         <v>0</v>
       </c>
-      <c r="AV3" s="28">
+      <c r="AV3" s="27">
         <f>SUM(AV4:AV59)</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="28">
+      <c r="AW3" s="27">
         <f>SUM(AW4:AW59)</f>
         <v>0</v>
       </c>
-      <c r="AX3" s="28">
+      <c r="AX3" s="27">
         <f>SUM(AX4:AX59)</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="28">
+      <c r="AY3" s="27">
         <f>SUM(AY4:AY59)</f>
         <v>0</v>
       </c>
-      <c r="AZ3" s="28">
+      <c r="AZ3" s="27">
         <f>SUM(AZ4:AZ59)</f>
         <v>0</v>
       </c>
-      <c r="BA3" s="28">
+      <c r="BA3" s="27">
         <f>SUM(BA4:BA59)</f>
         <v>0</v>
       </c>
-      <c r="BB3" s="28">
+      <c r="BB3" s="27">
         <f>SUM(BB4:BB59)</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="28">
+      <c r="BC3" s="27">
         <f>SUM(BC4:BC59)</f>
         <v>0</v>
       </c>
-      <c r="BD3" s="28">
+      <c r="BD3" s="27">
         <f>SUM(BD4:BD59)</f>
         <v>0</v>
       </c>
-      <c r="BE3" s="28">
+      <c r="BE3" s="27">
         <f>SUM(BE4:BE59)</f>
         <v>0</v>
       </c>
-      <c r="BF3" s="28">
+      <c r="BF3" s="27">
         <f>SUM(BF4:BF59)</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="28">
+      <c r="BG3" s="27">
         <f>SUM(BG4:BG59)</f>
         <v>0</v>
       </c>
-      <c r="BH3" s="28">
+      <c r="BH3" s="27">
         <f>SUM(BH4:BH59)</f>
         <v>0</v>
       </c>
-      <c r="BI3" s="28">
+      <c r="BI3" s="27">
         <f>SUM(BI4:BI59)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" s="28">
+      <c r="BJ3" s="27">
         <f>SUM(BJ4:BJ59)</f>
         <v>9</v>
       </c>
-      <c r="BK3" s="28">
+      <c r="BK3" s="27">
         <f>SUM(BK4:BK59)</f>
         <v>0</v>
       </c>
-      <c r="BL3" s="28">
+      <c r="BL3" s="27">
         <f>SUM(BL4:BL59)</f>
         <v>1</v>
       </c>
-      <c r="BM3" s="28">
+      <c r="BM3" s="27">
         <f>SUM(BM4:BM59)</f>
         <v>2</v>
       </c>
-      <c r="BN3" s="28">
+      <c r="BN3" s="27">
         <f>SUM(BN4:BN59)</f>
         <v>0</v>
       </c>
-      <c r="BO3" s="28">
+      <c r="BO3" s="27">
         <f>SUM(BO4:BO59)</f>
         <v>0</v>
       </c>
-      <c r="BP3" s="28">
+      <c r="BP3" s="27">
         <f>SUM(BP4:BP59)</f>
         <v>0</v>
       </c>
-      <c r="BQ3" s="28">
+      <c r="BQ3" s="27">
         <f>SUM(BQ4:BQ59)</f>
         <v>0</v>
       </c>
-      <c r="BR3" s="28">
+      <c r="BR3" s="27">
         <f>SUM(BR4:BR59)</f>
         <v>0</v>
       </c>
-      <c r="BS3" s="28">
+      <c r="BS3" s="27">
         <f>SUM(BS4:BS59)</f>
         <v>1</v>
       </c>
-      <c r="BT3" s="28">
+      <c r="BT3" s="27">
         <f>SUM(BT4:BT59)</f>
         <v>0</v>
       </c>
-      <c r="BU3" s="28">
+      <c r="BU3" s="27">
         <f>SUM(BU4:BU59)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="28">
+      <c r="BV3" s="27">
         <f>SUM(BV4:BV59)</f>
         <v>0</v>
       </c>
-      <c r="BW3" s="28">
+      <c r="BW3" s="27">
         <f>SUM(BW4:BW59)</f>
         <v>0</v>
       </c>
-      <c r="BX3" s="28">
+      <c r="BX3" s="27">
         <f>SUM(BX4:BX59)</f>
         <v>0</v>
       </c>
-      <c r="BY3" s="28">
+      <c r="BY3" s="27">
         <f>SUM(BY4:BY59)</f>
         <v>1</v>
       </c>
-      <c r="BZ3" s="28">
+      <c r="BZ3" s="27">
         <f>SUM(BZ4:BZ59)</f>
         <v>0</v>
       </c>
-      <c r="CA3" s="28">
+      <c r="CA3" s="27">
         <f>SUM(CA4:CA59)</f>
         <v>0</v>
       </c>
-      <c r="CB3" s="28">
+      <c r="CB3" s="27">
         <f>SUM(CB4:CB59)</f>
         <v>0</v>
       </c>
-      <c r="CC3" s="28">
+      <c r="CC3" s="27">
         <f>SUM(CC4:CC59)</f>
         <v>0</v>
       </c>
-      <c r="CD3" s="28">
+      <c r="CD3" s="27">
         <f>SUM(CD4:CD59)</f>
         <v>0</v>
       </c>
-      <c r="CE3" s="28">
+      <c r="CE3" s="27">
         <f>SUM(CE4:CE59)</f>
         <v>0</v>
       </c>
-      <c r="CF3" s="28">
+      <c r="CF3" s="27">
         <f>SUM(CF4:CF59)</f>
         <v>0</v>
       </c>
-      <c r="CG3" s="28"/>
-      <c r="CH3" s="28"/>
-      <c r="CI3" s="28"/>
-      <c r="CJ3" s="28"/>
-      <c r="CK3" s="28"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="28"/>
+      <c r="CG3" s="27"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="27"/>
+      <c r="CJ3" s="27"/>
+      <c r="CK3" s="27"/>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="27"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="28"/>
-      <c r="BG4" s="28"/>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="28"/>
-      <c r="BM4" s="28"/>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="28"/>
-      <c r="BP4" s="28"/>
-      <c r="BQ4" s="28"/>
-      <c r="BR4" s="28"/>
-      <c r="BS4" s="28"/>
-      <c r="BT4" s="28"/>
-      <c r="BU4" s="28"/>
-      <c r="BV4" s="28"/>
-      <c r="BW4" s="28"/>
-      <c r="BX4" s="28"/>
-      <c r="BY4" s="28"/>
-      <c r="BZ4" s="28"/>
-      <c r="CA4" s="28"/>
-      <c r="CB4" s="28"/>
-      <c r="CC4" s="28"/>
-      <c r="CD4" s="28"/>
-      <c r="CE4" s="28"/>
+      <c r="A4" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="27"/>
+      <c r="BV4" s="27"/>
+      <c r="BW4" s="27"/>
+      <c r="BX4" s="27"/>
+      <c r="BY4" s="27"/>
+      <c r="BZ4" s="27"/>
+      <c r="CA4" s="27"/>
+      <c r="CB4" s="27"/>
+      <c r="CC4" s="27"/>
+      <c r="CD4" s="27"/>
+      <c r="CE4" s="27"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>220</v>
+      <c r="A5" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>222</v>
       </c>
       <c r="AC5" s="11">
         <v>3</v>
@@ -7325,11 +7300,11 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>222</v>
+      <c r="A6" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>224</v>
       </c>
       <c r="C6" s="11">
         <v>20</v>
@@ -7348,11 +7323,11 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>224</v>
+      <c r="A7" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -7365,33 +7340,33 @@
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>226</v>
+      <c r="A8" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>228</v>
       </c>
       <c r="U8" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>228</v>
+      <c r="A9" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>230</v>
       </c>
       <c r="AE9" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>230</v>
+      <c r="A10" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>232</v>
       </c>
       <c r="O10" s="11">
         <v>14</v>
@@ -7419,11 +7394,11 @@
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>232</v>
+      <c r="A11" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>234</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -7445,11 +7420,11 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>234</v>
+      <c r="A12" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>236</v>
       </c>
       <c r="C12" s="11">
         <v>6</v>
@@ -7468,11 +7443,11 @@
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>236</v>
+      <c r="A13" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>238</v>
       </c>
       <c r="BJ13" s="11">
         <v>3</v>
@@ -7482,197 +7457,197 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
       <c r="BM14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="32"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="32"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="32"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="32"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="32"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="32"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="32"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="32"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="32"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="32"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="32"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="32"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="32"/>
       <c r="BF44" s="11"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="32"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="32"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="32"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="32"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="32"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="32"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="32"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="32"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="32"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="32"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="32"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="32"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="32"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="32"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="0"/>
   <pageMargins left="0.70833333333333315" right="0.70833333333333315" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>